--- a/Docs/需求/專家學者科別專長分類表修1_20240104.xlsx
+++ b/Docs/需求/專家學者科別專長分類表修1_20240104.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61A6777-2D53-4EC0-BE52-53379F22764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C909924B-7EDD-4A33-ADC9-AA98A0F10D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="DB" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表1!$3:$3</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="104">
   <si>
     <r>
       <rPr>
@@ -2399,7 +2400,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2430,7 +2431,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2439,10 +2443,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2761,24 +2765,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34FC65B-4DED-4AE9-AF02-9BC8B379DBD3}">
   <dimension ref="A1:B91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="78.375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.36328125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:2" ht="21.5" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="10"/>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>70</v>
       </c>
@@ -2786,539 +2790,539 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A5" s="11"/>
       <c r="B5" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A7" s="11"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A8" s="11"/>
       <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
+    <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A9" s="11"/>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+    <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
+    <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.4">
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
+    <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A18" s="11"/>
       <c r="B18" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A19" s="11"/>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
+    <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A20" s="11"/>
       <c r="B20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A21" s="11"/>
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A22" s="11"/>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+    <row r="23" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A24" s="13"/>
       <c r="B24" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A25" s="13"/>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+    <row r="26" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A26" s="12" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A27" s="13"/>
       <c r="B27" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A28" s="13"/>
       <c r="B28" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A29" s="13"/>
       <c r="B29" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A30" s="13"/>
       <c r="B30" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A31" s="13"/>
       <c r="B31" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A32" s="13"/>
       <c r="B32" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A33" s="13"/>
       <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A34" s="13"/>
       <c r="B34" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A35" s="13"/>
       <c r="B35" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A36" s="13"/>
       <c r="B36" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A37" s="13"/>
       <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A38" s="13"/>
       <c r="B38" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A39" s="13"/>
       <c r="B39" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
+    <row r="40" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A40" s="13"/>
       <c r="B40" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A41" s="13"/>
       <c r="B41" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+    <row r="42" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A42" s="13"/>
       <c r="B42" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+    <row r="43" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A43" s="13"/>
       <c r="B43" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A44" s="13"/>
       <c r="B44" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A45" s="13"/>
       <c r="B45" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+    <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A46" s="15"/>
       <c r="B46" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+    <row r="47" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A47" s="12" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
+    <row r="48" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A48" s="13"/>
       <c r="B48" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+    <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A49" s="15"/>
       <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="14" t="s">
+    <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
+    <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A51" s="11"/>
       <c r="B51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
+    <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A52" s="11"/>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
+    <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A53" s="11"/>
       <c r="B53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
+    <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A54" s="11"/>
       <c r="B54" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
+    <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A55" s="11"/>
       <c r="B55" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
+    <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A56" s="11"/>
       <c r="B56" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+    <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A57" s="11" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
+    <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A58" s="11"/>
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+    <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A59" s="11"/>
       <c r="B59" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
+    <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A60" s="11"/>
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
+    <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A61" s="11"/>
       <c r="B61" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
+    <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A62" s="11"/>
       <c r="B62" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
+    <row r="63" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A63" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+    <row r="64" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A64" s="13"/>
       <c r="B64" s="7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
+    <row r="65" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A65" s="13"/>
       <c r="B65" s="7" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A66" s="12"/>
+    <row r="66" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A66" s="13"/>
       <c r="B66" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+    <row r="67" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A67" s="13"/>
       <c r="B67" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+    <row r="68" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A68" s="13"/>
       <c r="B68" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+    <row r="69" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A69" s="13"/>
       <c r="B69" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="12"/>
+    <row r="70" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A70" s="13"/>
       <c r="B70" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="12"/>
+    <row r="71" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A71" s="13"/>
       <c r="B71" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+    <row r="72" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A72" s="13"/>
       <c r="B72" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+    <row r="73" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A73" s="13"/>
       <c r="B73" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+    <row r="74" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A74" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="12"/>
+    <row r="75" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A75" s="13"/>
       <c r="B75" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="12"/>
+    <row r="76" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A76" s="13"/>
       <c r="B76" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+    <row r="77" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A77" s="13"/>
       <c r="B77" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+    <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A78" s="11" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
+    <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A79" s="11"/>
       <c r="B79" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+    <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A80" s="11"/>
       <c r="B80" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
+    <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A81" s="11"/>
       <c r="B81" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A82" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+    <row r="83" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A83" s="13"/>
       <c r="B83" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A84" s="13"/>
       <c r="B84" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A85" s="13"/>
       <c r="B85" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+    <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A86" s="15"/>
       <c r="B86" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="14" t="s">
+    <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A87" s="11" t="s">
         <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88" s="14"/>
+    <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A88" s="11"/>
       <c r="B88" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="17" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>66</v>
       </c>
@@ -3326,22 +3330,27 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="14" t="s">
+    <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A90" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="14"/>
+    <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.4">
+      <c r="A91" s="11"/>
       <c r="B91" s="5" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="A63:A73"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A4:A22"/>
@@ -3350,11 +3359,6 @@
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="A63:A73"/>
-    <mergeCell ref="A82:A86"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3363,4 +3367,739 @@
     <oddFooter>第 &amp;P 頁，共 &amp;N 頁</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661B0598-4F3F-4E3A-9F18-2A1A771F15E5}">
+  <dimension ref="A1:B91"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="78.36328125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.4">
+      <c r="A11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.4"/>
+    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Docs/需求/專家學者科別專長分類表修1_20240104.xlsx
+++ b/Docs/需求/專家學者科別專長分類表修1_20240104.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C909924B-7EDD-4A33-ADC9-AA98A0F10D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5934A215-02AB-48BE-B8DE-A2513C3B26C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9D1A7B3E-0AC3-4DBE-A1BF-06EF9CFEE0AE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="105">
   <si>
     <r>
       <rPr>
@@ -2222,6 +2222,10 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2434,7 +2438,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2443,10 +2447,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2777,10 +2781,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21.5" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="14"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
@@ -2791,7 +2795,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -2799,109 +2803,109 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A5" s="11"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A6" s="11"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A7" s="11"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A12" s="11"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="34" x14ac:dyDescent="0.4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A14" s="11"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A16" s="11"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A17" s="11"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A18" s="11"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A19" s="11"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A20" s="11"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A22" s="11"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="4" t="s">
         <v>9</v>
       </c>
@@ -3049,7 +3053,7 @@
       </c>
     </row>
     <row r="46" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A46" s="15"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="4" t="s">
         <v>23</v>
       </c>
@@ -3069,13 +3073,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A49" s="15"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="15" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -3083,43 +3087,43 @@
       </c>
     </row>
     <row r="51" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A51" s="11"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A52" s="11"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A53" s="11"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A54" s="11"/>
+      <c r="A54" s="15"/>
       <c r="B54" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A55" s="11"/>
+      <c r="A55" s="15"/>
       <c r="B55" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A56" s="11"/>
+      <c r="A56" s="15"/>
       <c r="B56" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3127,31 +3131,31 @@
       </c>
     </row>
     <row r="58" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A58" s="11"/>
+      <c r="A58" s="15"/>
       <c r="B58" s="4" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A59" s="11"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A60" s="11"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A61" s="11"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A62" s="11"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="4" t="s">
         <v>39</v>
       </c>
@@ -3251,7 +3255,7 @@
       </c>
     </row>
     <row r="78" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -3259,19 +3263,19 @@
       </c>
     </row>
     <row r="79" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A79" s="11"/>
+      <c r="A79" s="15"/>
       <c r="B79" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A80" s="11"/>
+      <c r="A80" s="15"/>
       <c r="B80" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A81" s="11"/>
+      <c r="A81" s="15"/>
       <c r="B81" s="4" t="s">
         <v>58</v>
       </c>
@@ -3303,13 +3307,13 @@
       </c>
     </row>
     <row r="86" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A86" s="15"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="15" t="s">
         <v>64</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -3317,7 +3321,7 @@
       </c>
     </row>
     <row r="88" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A88" s="11"/>
+      <c r="A88" s="15"/>
       <c r="B88" s="5" t="s">
         <v>77</v>
       </c>
@@ -3331,7 +3335,7 @@
       </c>
     </row>
     <row r="90" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="15" t="s">
         <v>68</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -3339,18 +3343,13 @@
       </c>
     </row>
     <row r="91" spans="1:2" ht="17" x14ac:dyDescent="0.4">
-      <c r="A91" s="11"/>
+      <c r="A91" s="15"/>
       <c r="B91" s="5" t="s">
         <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="A63:A73"/>
-    <mergeCell ref="A82:A86"/>
     <mergeCell ref="A87:A88"/>
     <mergeCell ref="A90:A91"/>
     <mergeCell ref="A4:A22"/>
@@ -3359,6 +3358,11 @@
     <mergeCell ref="A50:A56"/>
     <mergeCell ref="A74:A77"/>
     <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="A63:A73"/>
+    <mergeCell ref="A82:A86"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3371,733 +3375,998 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661B0598-4F3F-4E3A-9F18-2A1A771F15E5}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="78.36328125" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C1" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.4">
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="34" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A21" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A22" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A23" s="10" t="s">
         <v>98</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A24" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A25" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A26" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A27" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A28" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C28" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A29" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C30" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A31" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C31" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A32" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C32" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A33" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A34" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C34" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A35" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C35" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A36" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C36" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A37" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C37" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A38" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A39" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C39" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A40" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C40" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A41" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C41" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A42" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C42" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A43" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C43" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A44" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C44" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A45" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A46" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A47" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C47" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A48" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A49" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C49" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A50" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C50" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C51" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A54" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C54" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A57" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C58" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A60" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C60" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A61" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A62" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C62" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A63" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C63" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A64" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A65" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C65" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A66" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C66" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A67" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C67" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A68" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C68" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A69" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C69" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A70" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C70" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A71" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C71" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A72" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A73" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C73" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A74" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C74" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A75" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C75" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A76" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A77" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C77" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A78" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C78" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A79" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C79" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A80" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A81" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C81" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A82" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C82" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A83" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A84" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C84" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A85" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C85" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A86" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C86" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A87" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A88" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.4">
       <c r="A89" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="15.5" x14ac:dyDescent="0.4"/>
-    <row r="91" spans="1:2" ht="15.5" x14ac:dyDescent="0.4"/>
+      <c r="C89" s="2">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
